--- a/schedule/mixer/scania.xlsx
+++ b/schedule/mixer/scania.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\concrete_maintenance_app\schedule\mixer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01527D1B-3E32-497F-9D23-C1D2010CEDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FF85D-C33E-4B1A-99BD-BB52BDD14168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{CA7354C1-2B4A-4D09-BD11-F737702D4105}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CA7354C1-2B4A-4D09-BD11-F737702D4105}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="Every 250 Operating Hours (~Mon" sheetId="3" r:id="rId3"/>
-    <sheet name="Every 500 Hours (~3 Months)" sheetId="4" r:id="rId4"/>
-    <sheet name="Every 1000 Hours   Yearly" sheetId="5" r:id="rId5"/>
+    <sheet name="Every 250 OP Hrs(Monthly)" sheetId="3" r:id="rId3"/>
+    <sheet name="Every 500 Hours (3 Months)" sheetId="4" r:id="rId4"/>
+    <sheet name="Every 1000 Hours (Yearly)" sheetId="5" r:id="rId5"/>
     <sheet name="maintenance_log" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Visually look at the roller track and roller alignment.</t>
   </si>
   <si>
-    <t>Mixer drum: Lubricate mixer according to Maintenance Checklist in this section.</t>
-  </si>
-  <si>
     <t>Lubricate mechanical moving parts.</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
     <t>Check booster filter indicator: The green falls away, leaving only red to indicate that service is needed.</t>
   </si>
   <si>
-    <t>Mixer drum: Grease rear manual controller.</t>
-  </si>
-  <si>
-    <t>Mixer drum: Change hydraulic oil for temperature reasons.</t>
-  </si>
-  <si>
     <t>Mixer drum: Change hydraulic oil for age reasons.</t>
   </si>
   <si>
@@ -215,6 +206,99 @@
   </si>
   <si>
     <t>Mixer drum: Change oil in drum drive gear case</t>
+  </si>
+  <si>
+    <t>DRUM MIXER :</t>
+  </si>
+  <si>
+    <t>Check drum for concrete build-up: Clean any leftover mix after each use</t>
+  </si>
+  <si>
+    <t>Inspect charging and discharging hoppers: Ensure no blockages or cracks</t>
+  </si>
+  <si>
+    <t>Check drum rotation (smooth and consistent): Listen for abnormal noises</t>
+  </si>
+  <si>
+    <t>Verify water tank level: Sufficient for drum washing</t>
+  </si>
+  <si>
+    <t>Check chute condition and movement: No cracks or deformations</t>
+  </si>
+  <si>
+    <t>Look for hydraulic leaks near drum motor and lines: Report if found</t>
+  </si>
+  <si>
+    <t>Ensure drum cover is in place: Prevents concrete splashing during transport</t>
+  </si>
+  <si>
+    <t>Inspect drum blades (mixing fins): Look for wear, cracks, or loosening</t>
+  </si>
+  <si>
+    <t>Check drum shell for dents or cracks: Especially near welds and seams</t>
+  </si>
+  <si>
+    <t>Inspect drum ring gear &amp; drive pinion: Clean and visually check for damage or misalignment</t>
+  </si>
+  <si>
+    <t>Check drum lock mechanism (if present): Should engage securely</t>
+  </si>
+  <si>
+    <t>Inspect chute lifting mechanism: Hydraulic or mechanical—check cables, hinges, cylinders</t>
+  </si>
+  <si>
+    <t>DRUM MIXER:</t>
+  </si>
+  <si>
+    <t>Check drum wall thickness (if accessible): Tap test or ultrasonic check (in high-wear fleets)</t>
+  </si>
+  <si>
+    <t>Inspect drum rotation speed and drive motor performance: Confirm proper RPM and torque under load</t>
+  </si>
+  <si>
+    <t>Examine hydraulic oil level and cleanliness: Top up and change if dark or foamy</t>
+  </si>
+  <si>
+    <t>Check water spray nozzles: Ensure they’re unclogged and spraying properly</t>
+  </si>
+  <si>
+    <t>Inspect chute pivots and discharge door: Lubricate and check for misalignment or jamming</t>
+  </si>
+  <si>
+    <t>Perform detailed inspection of blade wear: Measure remaining blade height; replace if below limit</t>
+  </si>
+  <si>
+    <t>Inspect drum trunnion rollers (support rollers):  Check for flat spots or excessive play</t>
+  </si>
+  <si>
+    <t>Inspect and tighten drive coupling bolts: Drum drive to hydraulic motor</t>
+  </si>
+  <si>
+    <t>Lubricate gear teeth and roller bearings: Use appropriate high-temp grease</t>
+  </si>
+  <si>
+    <t>Grease rear manual controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change hydraulic oil for temperature reasons.</t>
+  </si>
+  <si>
+    <t>Perform non-destructive testing (NDT) on drum shell: Ultrasonic or visual if in high-hour units</t>
+  </si>
+  <si>
+    <t>Replace or rebuild mixing blades if needed: Based on wear percentage or volume mixed</t>
+  </si>
+  <si>
+    <t>Flush and replace hydraulic oil and filters: Ensure clean system operation</t>
+  </si>
+  <si>
+    <t>Inspect entire water system (tank, pump, piping): Flush and sanitize if needed</t>
+  </si>
+  <si>
+    <t>Repaint or treat drum exterior for corrosion: Especially important for coastal or humid areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lubricate mixer according to Maintenance Checklist in this section.</t>
   </si>
 </sst>
 </file>
@@ -595,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA835B7-4A21-4C18-945C-CE8C0B157FBC}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +785,46 @@
         <v>39</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -708,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6A140-8C4D-4E8D-AA0D-527D512300BF}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +895,37 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825DB21D-4A72-4EDF-B8E9-52F4B80D3E81}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,37 +978,67 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCE4F1-FEFB-44F5-9231-E15456FE0ABF}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,13 +1090,38 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
+      <c r="A7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -922,15 +1131,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2562C4-5BC9-429D-B450-F2BC03930BC2}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -975,17 +1184,47 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
